--- a/biology/Botanique/Oenanthe_fluviatilis/Oenanthe_fluviatilis.xlsx
+++ b/biology/Botanique/Oenanthe_fluviatilis/Oenanthe_fluviatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenanthe fluviatilis, de noms communs Œnanthe des fleuves, Œnanthe des rivières ou Œnanthe des eaux courantes, est une plante herbacée aquatique du genre Oenanthe, de la famille des Apiaceae.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante est hémicryptophyte[1].
-Appareil reproducteur
-L'inflorescence est une ombelle d'ombellules. Le fruit est un akène. Les fleurs sont blanches[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est hémicryptophyte.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet Œnanthe habite les rivières eutrophes, neutres à basiques[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une ombelle d'ombellules. Le fruit est un akène. Les fleurs sont blanches.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’œnanthe des fleuves est indigène d'Europe[1],[3].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet Œnanthe habite les rivières eutrophes, neutres à basiques.
 </t>
         </is>
       </c>
@@ -604,12 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est qualifiée de quasi-menacée (NT) par l'Union internationale pour la conservation de la nature (UICN)[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’œnanthe des fleuves est indigène d'Europe,.
 </t>
         </is>
       </c>
@@ -635,18 +660,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est qualifiée de quasi-menacée (NT) par l'Union internationale pour la conservation de la nature (UICN).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oenanthe_fluviatilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oenanthe_fluviatilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Synonymes
-Oenanthe conioides Lange
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Oenanthe conioides Lange
 Oenanthe phellandrium var. fluviatilis Bab.
 Phellandrium conioides Nolte ex Nyman
-Selinum conioides (Lange) E.H.L.Krause[4]
-Variété
-Oenanthe phellandrium var. fluviatilis Bab., 1843[2]</t>
+Selinum conioides (Lange) E.H.L.Krause</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oenanthe_fluviatilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oenanthe_fluviatilis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Variété</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Oenanthe phellandrium var. fluviatilis Bab., 1843</t>
         </is>
       </c>
     </row>
